--- a/fish traits/fish_data/Traits_DataEntryFishes_2023-02-28.xlsx
+++ b/fish traits/fish_data/Traits_DataEntryFishes_2023-02-28.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/peter_nelson_water_ca_gov/Documents/3-Projects/05-drought monitoring/drought traits project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub Gdrive Projects\drought_traits\fish traits\fish_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="451" documentId="8_{1090CD82-4BD5-4DFA-AB4A-BF15CA54C77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C72FD50-CBF7-4D3F-9D06-A67E9EA25F75}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF6C388-695B-4020-896C-71A360CF1736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24060" yWindow="1125" windowWidth="23010" windowHeight="12255" xr2:uid="{BEE8D159-CA49-48BE-AEF6-027E86137074}"/>
+    <workbookView xWindow="-23040" yWindow="3240" windowWidth="8370" windowHeight="10140" firstSheet="4" activeTab="4" xr2:uid="{BEE8D159-CA49-48BE-AEF6-027E86137074}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="data add'l" sheetId="4" r:id="rId2"/>
     <sheet name="key" sheetId="2" r:id="rId3"/>
     <sheet name="references" sheetId="3" r:id="rId4"/>
+    <sheet name="add'l spp" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="224">
   <si>
     <t>target_taxon_name</t>
   </si>
@@ -652,12 +653,93 @@
   <si>
     <t>no. of eggs</t>
   </si>
+  <si>
+    <t>Yellowfin Goby</t>
+  </si>
+  <si>
+    <t>Topsmelt</t>
+  </si>
+  <si>
+    <t>White Catfish</t>
+  </si>
+  <si>
+    <t>Splittail</t>
+  </si>
+  <si>
+    <t>Plainfin Midshipman</t>
+  </si>
+  <si>
+    <t>Starry Flounder</t>
+  </si>
+  <si>
+    <t>White Sturgeon</t>
+  </si>
+  <si>
+    <t>Shiner Perch</t>
+  </si>
+  <si>
+    <t>Acanthogobius flavimanus</t>
+  </si>
+  <si>
+    <t>Atherinops affinis</t>
+  </si>
+  <si>
+    <t>Ameiurus catus</t>
+  </si>
+  <si>
+    <t>Porichthys notatus</t>
+  </si>
+  <si>
+    <t>Platichthys stellatus</t>
+  </si>
+  <si>
+    <t>Acipenser transmontanus</t>
+  </si>
+  <si>
+    <t>Cymatogaster aggregata</t>
+  </si>
+  <si>
+    <t>fishbase.se</t>
+  </si>
+  <si>
+    <t>Yellowfin Goby: Lmat looks way too big</t>
+  </si>
+  <si>
+    <t>Yellowfin goby</t>
+  </si>
+  <si>
+    <t>physiology</t>
+  </si>
+  <si>
+    <t>Wei</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>https://www-nature-com.oca.ucsc.edu/articles/s41598-018-20120-x</t>
+  </si>
+  <si>
+    <t>may not ultimately be useful</t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>Workman</t>
+  </si>
+  <si>
+    <t>cpue affected by Delta outflow</t>
+  </si>
+  <si>
+    <t>https://escholarship.org/uc/item/2b983749</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +782,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -727,13 +814,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,11 +1136,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D9EB66-9102-4FF5-A8CA-791115417607}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K65" sqref="K65:K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3943,6 +4031,41 @@
         <v>41</v>
       </c>
     </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O64">
     <sortCondition ref="A2:A64"/>
@@ -3956,10 +4079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96EBA44-2CF2-4CA8-9F23-2930FC0590F7}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" activeCellId="1" sqref="A6 A8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4136,6 +4259,76 @@
         <v>107</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4145,7 +4338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B968F34-D1F1-468D-861C-B3678BFED83F}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4364,10 +4557,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A64519C-C97F-4AF6-BCD3-7599DBAE544B}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,25 +4829,71 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14">
+        <v>2018</v>
+      </c>
+      <c r="E14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15">
+        <v>2007</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>107</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>124</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>122</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>123</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4662,6 +4901,121 @@
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1" display="https://doi.org/10.15447/sfews.2005v3iss2art1" xr:uid="{B450D205-FCDD-4782-8FCF-74724978A1D8}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11130ADC-14A2-4DAD-919F-97FAE6F477E5}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4676,6 +5030,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f60d4be9-3557-4154-8f7f-0f7fc20459a7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e232c206-309b-474b-8da4-c8d575bef4c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010083273B062B35CA42A1E0A0B73A10A11A" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="701d8ad82fac035fae8804b0a6881e55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e232c206-309b-474b-8da4-c8d575bef4c3" xmlns:ns3="4fa31878-c15f-4cc2-b832-57ca6f3405c8" xmlns:ns4="f60d4be9-3557-4154-8f7f-0f7fc20459a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11990063e850fe3384480a77fc500bb0" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e232c206-309b-474b-8da4-c8d575bef4c3"/>
@@ -4891,17 +5256,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f60d4be9-3557-4154-8f7f-0f7fc20459a7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e232c206-309b-474b-8da4-c8d575bef4c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A49AB8B-2476-4025-BD19-0D049D4B8192}">
   <ds:schemaRefs>
@@ -4911,6 +5265,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CBF86D7-C64D-4782-A218-1C314E358303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e232c206-309b-474b-8da4-c8d575bef4c3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4fa31878-c15f-4cc2-b832-57ca6f3405c8"/>
+    <ds:schemaRef ds:uri="f60d4be9-3557-4154-8f7f-0f7fc20459a7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27186B7E-23F8-47D9-B8E0-C9F0EFB09031}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4928,22 +5300,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CBF86D7-C64D-4782-A218-1C314E358303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e232c206-309b-474b-8da4-c8d575bef4c3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4fa31878-c15f-4cc2-b832-57ca6f3405c8"/>
-    <ds:schemaRef ds:uri="f60d4be9-3557-4154-8f7f-0f7fc20459a7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fish traits/fish_data/Traits_DataEntryFishes_2023-02-28.xlsx
+++ b/fish traits/fish_data/Traits_DataEntryFishes_2023-02-28.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub Gdrive Projects\drought_traits\fish traits\fish_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF6C388-695B-4020-896C-71A360CF1736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5716BA34-A2B9-4B96-BC18-B49935C55152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="3240" windowWidth="8370" windowHeight="10140" firstSheet="4" activeTab="4" xr2:uid="{BEE8D159-CA49-48BE-AEF6-027E86137074}"/>
+    <workbookView xWindow="-23610" yWindow="855" windowWidth="22785" windowHeight="13320" activeTab="4" xr2:uid="{BEE8D159-CA49-48BE-AEF6-027E86137074}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="og data" sheetId="1" r:id="rId1"/>
     <sheet name="data add'l" sheetId="4" r:id="rId2"/>
     <sheet name="key" sheetId="2" r:id="rId3"/>
     <sheet name="references" sheetId="3" r:id="rId4"/>
-    <sheet name="add'l spp" sheetId="5" r:id="rId5"/>
+    <sheet name="data" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="402">
   <si>
     <t>target_taxon_name</t>
   </si>
@@ -420,9 +421,6 @@
     <t>length (TL cm) at sexual maturity (male unless otherwise indicated in 'notes')</t>
   </si>
   <si>
-    <t>weight (kg), max reported (male unless otherwise indicated in 'notes')</t>
-  </si>
-  <si>
     <t>https://www.fishbase.se/summary/Alosa-sapidissima.html</t>
   </si>
   <si>
@@ -699,9 +697,6 @@
     <t>Cymatogaster aggregata</t>
   </si>
   <si>
-    <t>fishbase.se</t>
-  </si>
-  <si>
     <t>Yellowfin Goby: Lmat looks way too big</t>
   </si>
   <si>
@@ -733,6 +728,546 @@
   </si>
   <si>
     <t>https://escholarship.org/uc/item/2b983749</t>
+  </si>
+  <si>
+    <t>pct_grand_N</t>
+  </si>
+  <si>
+    <t>pct_freq</t>
+  </si>
+  <si>
+    <t>Northern Anchovy</t>
+  </si>
+  <si>
+    <t>Longfin Smelt</t>
+  </si>
+  <si>
+    <t>Threadfin Shad</t>
+  </si>
+  <si>
+    <t>American Shad</t>
+  </si>
+  <si>
+    <t>Delta Smelt</t>
+  </si>
+  <si>
+    <t>Pacific Herring</t>
+  </si>
+  <si>
+    <t>Jacksmelt</t>
+  </si>
+  <si>
+    <t>Chinook Salmon</t>
+  </si>
+  <si>
+    <t>White Croaker</t>
+  </si>
+  <si>
+    <t>Channel Catfish</t>
+  </si>
+  <si>
+    <t>Atherinopsis californiensis</t>
+  </si>
+  <si>
+    <t>Genyonemus lineatus</t>
+  </si>
+  <si>
+    <t>Ictalurus punctatus</t>
+  </si>
+  <si>
+    <t>aequorea_spp</t>
+  </si>
+  <si>
+    <t>american_shad</t>
+  </si>
+  <si>
+    <t>arrow_goby</t>
+  </si>
+  <si>
+    <t>bat_ray</t>
+  </si>
+  <si>
+    <t>bay_goby</t>
+  </si>
+  <si>
+    <t>bay_pipefish</t>
+  </si>
+  <si>
+    <t>big_skate</t>
+  </si>
+  <si>
+    <t>bigscale_logperch</t>
+  </si>
+  <si>
+    <t>black_crappie</t>
+  </si>
+  <si>
+    <t>black_perch</t>
+  </si>
+  <si>
+    <t>bluegill</t>
+  </si>
+  <si>
+    <t>broadnose_sevengill_shark</t>
+  </si>
+  <si>
+    <t>brown_bullhead</t>
+  </si>
+  <si>
+    <t>brown_smoothhound</t>
+  </si>
+  <si>
+    <t>california_grunion</t>
+  </si>
+  <si>
+    <t>california_halibut</t>
+  </si>
+  <si>
+    <t>california_tonguefish</t>
+  </si>
+  <si>
+    <t>chameleon_goby</t>
+  </si>
+  <si>
+    <t>channel_catfish</t>
+  </si>
+  <si>
+    <t>cheekspot_goby</t>
+  </si>
+  <si>
+    <t>chinook_salmon</t>
+  </si>
+  <si>
+    <t>chrysaora_fuscensens</t>
+  </si>
+  <si>
+    <t>comb_jelly</t>
+  </si>
+  <si>
+    <t>common_carp</t>
+  </si>
+  <si>
+    <t>crangon_shrimp</t>
+  </si>
+  <si>
+    <t>delta_smelt</t>
+  </si>
+  <si>
+    <t>diamond_turbot</t>
+  </si>
+  <si>
+    <t>dwarf_perch</t>
+  </si>
+  <si>
+    <t>english_sole</t>
+  </si>
+  <si>
+    <t>flatfish</t>
+  </si>
+  <si>
+    <t>goby_unid</t>
+  </si>
+  <si>
+    <t>golden_shiner</t>
+  </si>
+  <si>
+    <t>goldfish</t>
+  </si>
+  <si>
+    <t>green_sturgeon</t>
+  </si>
+  <si>
+    <t>green_sunfish</t>
+  </si>
+  <si>
+    <t>grey_smoothhound</t>
+  </si>
+  <si>
+    <t>hitch</t>
+  </si>
+  <si>
+    <t>jacksmelt</t>
+  </si>
+  <si>
+    <t>jellyfish</t>
+  </si>
+  <si>
+    <t>largemouth_bass</t>
+  </si>
+  <si>
+    <t>leopard_shark</t>
+  </si>
+  <si>
+    <t>lingcod</t>
+  </si>
+  <si>
+    <t>lizardfish</t>
+  </si>
+  <si>
+    <t>longfin_smelt</t>
+  </si>
+  <si>
+    <t>maeotias</t>
+  </si>
+  <si>
+    <t>mississippi_grass_shrimp</t>
+  </si>
+  <si>
+    <t>mississippi_silverside</t>
+  </si>
+  <si>
+    <t>moon_jellies</t>
+  </si>
+  <si>
+    <t>mud_shrimp</t>
+  </si>
+  <si>
+    <t>night_smelt</t>
+  </si>
+  <si>
+    <t>northern_anchovy</t>
+  </si>
+  <si>
+    <t>pacific_electric_ray</t>
+  </si>
+  <si>
+    <t>pacific_halibut</t>
+  </si>
+  <si>
+    <t>pacific_herring</t>
+  </si>
+  <si>
+    <t>pacific_lamprey</t>
+  </si>
+  <si>
+    <t>pacific_pompano</t>
+  </si>
+  <si>
+    <t>pacific_sanddab</t>
+  </si>
+  <si>
+    <t>pacific_sardine</t>
+  </si>
+  <si>
+    <t>pacific_staghorn_sculpin</t>
+  </si>
+  <si>
+    <t>pacific_tomcod</t>
+  </si>
+  <si>
+    <t>palaemon_spp</t>
+  </si>
+  <si>
+    <t>pile_perch</t>
+  </si>
+  <si>
+    <t>plainfin_midshipman</t>
+  </si>
+  <si>
+    <t>polyorchis</t>
+  </si>
+  <si>
+    <t>prickly_sculpin</t>
+  </si>
+  <si>
+    <t>rainwater_killifish</t>
+  </si>
+  <si>
+    <t>redear_sunfish</t>
+  </si>
+  <si>
+    <t>riffle_sculpin</t>
+  </si>
+  <si>
+    <t>river_lamprey</t>
+  </si>
+  <si>
+    <t>rock_sole</t>
+  </si>
+  <si>
+    <t>rubberlip_seaperch</t>
+  </si>
+  <si>
+    <t>sacramento_blackfish</t>
+  </si>
+  <si>
+    <t>sacramento_perch</t>
+  </si>
+  <si>
+    <t>sacramento_pikeminnow</t>
+  </si>
+  <si>
+    <t>sacramento_sucker</t>
+  </si>
+  <si>
+    <t>sand_sole</t>
+  </si>
+  <si>
+    <t>scrippsia_pacifica</t>
+  </si>
+  <si>
+    <t>shimofuri_goby</t>
+  </si>
+  <si>
+    <t>shiner_perch</t>
+  </si>
+  <si>
+    <t>shokihaze_goby</t>
+  </si>
+  <si>
+    <t>shrimp_unid</t>
+  </si>
+  <si>
+    <t>siberian_prawn</t>
+  </si>
+  <si>
+    <t>silver_surfperch</t>
+  </si>
+  <si>
+    <t>smelt_family</t>
+  </si>
+  <si>
+    <t>speckled_sanddab</t>
+  </si>
+  <si>
+    <t>spiny_dogfish</t>
+  </si>
+  <si>
+    <t>spotfin_surfperch</t>
+  </si>
+  <si>
+    <t>spotted_bass</t>
+  </si>
+  <si>
+    <t>starry_flounder</t>
+  </si>
+  <si>
+    <t>steelhead</t>
+  </si>
+  <si>
+    <t>striped_bass_age_0</t>
+  </si>
+  <si>
+    <t>striped_bass_age_1</t>
+  </si>
+  <si>
+    <t>striped_bass_age_2</t>
+  </si>
+  <si>
+    <t>striped_bass_age_3</t>
+  </si>
+  <si>
+    <t>surf_smelt</t>
+  </si>
+  <si>
+    <t>threadfin_shad</t>
+  </si>
+  <si>
+    <t>threespine_stickleback</t>
+  </si>
+  <si>
+    <t>topsmelt</t>
+  </si>
+  <si>
+    <t>tule_perch</t>
+  </si>
+  <si>
+    <t>unid</t>
+  </si>
+  <si>
+    <t>wakasagi</t>
+  </si>
+  <si>
+    <t>walleye_surfperch</t>
+  </si>
+  <si>
+    <t>warmouth</t>
+  </si>
+  <si>
+    <t>western_mosquitofish</t>
+  </si>
+  <si>
+    <t>white_catfish</t>
+  </si>
+  <si>
+    <t>white_crappie</t>
+  </si>
+  <si>
+    <t>white_croaker</t>
+  </si>
+  <si>
+    <t>white_sea_bass</t>
+  </si>
+  <si>
+    <t>white_seaperch</t>
+  </si>
+  <si>
+    <t>white_sturgeon</t>
+  </si>
+  <si>
+    <t>whitebait_smelt</t>
+  </si>
+  <si>
+    <t>wolf_eel</t>
+  </si>
+  <si>
+    <t>yellowfin_goby</t>
+  </si>
+  <si>
+    <t>original_dataset</t>
+  </si>
+  <si>
+    <t>migratory</t>
+  </si>
+  <si>
+    <t>benthic</t>
+  </si>
+  <si>
+    <t>Moyle, max fecundity</t>
+  </si>
+  <si>
+    <t>Lmax: male/unsexed, Fishbase; Lmat: females 95-135; life span: 82 age of Oregon fish (Moyle 2002), previously much greater; fecundity: 320 cm = 253 kg * 5648/3 (length-wt from fishbase, eggs/kg from Moyle, divide by 3 bc Moyle-spawn every 2-4 yrs): thermal tolerance = CTMax for 18 deg acclimated larvae per Rodgers et al 2018</t>
+  </si>
+  <si>
+    <t>data: from Moyle 2002; Carey &amp; Judge 2000 (Longevity Records: life spans of mammals, birds, amphibians, reptiles and fish)</t>
+  </si>
+  <si>
+    <t>nonmigratory</t>
+  </si>
+  <si>
+    <t>life_hist</t>
+  </si>
+  <si>
+    <t>freshwater</t>
+  </si>
+  <si>
+    <t>euryhaline </t>
+  </si>
+  <si>
+    <t>life_span</t>
+  </si>
+  <si>
+    <t>therm_tol</t>
+  </si>
+  <si>
+    <t>number of eggs female produces annually, usually based on max (max age or size)</t>
+  </si>
+  <si>
+    <t>benthic, pelagic, littoral, etc.</t>
+  </si>
+  <si>
+    <t>max reported age in years</t>
+  </si>
+  <si>
+    <t>native/nonnative</t>
+  </si>
+  <si>
+    <t>uncertain about therm_tol; lmax from fishbase</t>
+  </si>
+  <si>
+    <t>marine, freshwater, euryhaline (found in brackish water or capable of moving freely btwn fresh and saltwater), anadromous</t>
+  </si>
+  <si>
+    <t>Clark 1929. The life history of the California jacksmelt, Atherinopsis californiensis. Calif. Div.Fish and Game, Fish Bull. 16. 22 p.</t>
+  </si>
+  <si>
+    <t>Striped Bass</t>
+  </si>
+  <si>
+    <t>varies…consider switching to upper value for a temperature range and maybe adding the breadth of that range, and blow off the "thermal maximum"</t>
+  </si>
+  <si>
+    <t>trait bank database</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>residency</t>
+  </si>
+  <si>
+    <t>l_mat</t>
+  </si>
+  <si>
+    <t>l_max</t>
+  </si>
+  <si>
+    <t>life span: fishbase; l_max: calfish (Moyle?)</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>am.shad</t>
+  </si>
+  <si>
+    <t>p.herring</t>
+  </si>
+  <si>
+    <t>threadfin</t>
+  </si>
+  <si>
+    <t>n.anchovy</t>
+  </si>
+  <si>
+    <t>d.smelt</t>
+  </si>
+  <si>
+    <t>chinook</t>
+  </si>
+  <si>
+    <t>longfin</t>
+  </si>
+  <si>
+    <t>yellowfin</t>
+  </si>
+  <si>
+    <t>striped.b</t>
+  </si>
+  <si>
+    <t>wht.sturg</t>
+  </si>
+  <si>
+    <t>wht.cat</t>
+  </si>
+  <si>
+    <t>shiner.p</t>
+  </si>
+  <si>
+    <t>wht.croaker</t>
+  </si>
+  <si>
+    <t>channel.cat</t>
+  </si>
+  <si>
+    <t>starry.fl</t>
+  </si>
+  <si>
+    <t>pf.midshipm</t>
+  </si>
+  <si>
+    <t>name_abr</t>
+  </si>
+  <si>
+    <t>migratory/non-migratory; restricted to adult form, seasonal or reproductive (i.e., no diel migrators or ontogenetic habitat shifts)</t>
+  </si>
+  <si>
+    <t>benthopelagic</t>
+  </si>
+  <si>
+    <t>fecundity from Shipman 1977; life_span, therm_tol from FishBase; Lmat from Appelget &amp; Smith 2011; migratory in parts of their native range--unknown w re to Delta</t>
+  </si>
+  <si>
+    <t>marinespecies.wildlife.ca.gov; Clark 1929; used same fecundity as topsmelt and used slightly lower therm_tol (27) bc more marine</t>
+  </si>
+  <si>
+    <t>Moyle 2002; used (18.5/49.4)*37 to estimate l_mat (ie from jacksmelt)</t>
+  </si>
+  <si>
+    <t>FishBase: batch fecundity * 21 (thought to spawn per waterboards.ca.gov 18-24 times per season), high end of "preferred temp range" = 18.1</t>
+  </si>
+  <si>
+    <t>FishBase: fecundity, Lmax, therm_tol = max from "preferred range"; Love: l_mat, life_span</t>
   </si>
 </sst>
 </file>
@@ -788,7 +1323,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,6 +1333,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,14 +1361,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1138,9 +1688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D9EB66-9102-4FF5-A8CA-791115417607}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K65" sqref="K65:K71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,94 +1759,92 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="K2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2">
         <v>225600</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="O2" s="5"/>
+      <c r="M2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O3" s="5"/>
+      <c r="L3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1318,13 +1866,13 @@
         <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K4" t="s">
         <v>77</v>
@@ -1336,143 +1884,140 @@
         <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="F5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5">
         <v>60</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O5" s="5"/>
+      <c r="M5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" t="s">
         <v>180</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M7" t="s">
+        <v>165</v>
+      </c>
+      <c r="N7" t="s">
         <v>166</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1503,7 +2048,7 @@
         <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -1522,94 +2067,92 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="J9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9">
+        <v>41000</v>
+      </c>
+      <c r="M9" t="s">
+        <v>195</v>
+      </c>
+      <c r="N9" t="s">
         <v>177</v>
       </c>
-      <c r="L9" s="5">
-        <v>41000</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="F10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O10" s="5"/>
+      <c r="L10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1631,7 +2174,7 @@
         <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
@@ -1650,141 +2193,139 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12">
         <v>46</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O12" s="5"/>
+      <c r="M12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N12" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="F13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" t="s">
+        <v>188</v>
+      </c>
+      <c r="M13" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" t="s">
+        <v>186</v>
+      </c>
+      <c r="O13" t="s">
         <v>189</v>
       </c>
-      <c r="M13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" t="s">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s">
+        <v>165</v>
+      </c>
+      <c r="N14" t="s">
         <v>166</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1834,94 +2375,92 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" s="5">
+      <c r="K16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16">
         <v>21000</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="O16" s="5"/>
+      <c r="M16" t="s">
+        <v>195</v>
+      </c>
+      <c r="N16" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" t="s">
         <v>112</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O17" s="5"/>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s">
+        <v>165</v>
+      </c>
+      <c r="N17" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1943,13 +2482,13 @@
         <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
         <v>77</v>
@@ -1961,143 +2500,140 @@
         <v>78</v>
       </c>
       <c r="N18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19">
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I20" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J20" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="5">
-        <v>22</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="s">
+        <v>165</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J21" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="K21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" t="s">
         <v>166</v>
       </c>
-      <c r="N20" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2116,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -2143,98 +2679,96 @@
         <v>41</v>
       </c>
       <c r="O22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23">
+        <v>206170</v>
+      </c>
+      <c r="M23" t="s">
+        <v>195</v>
+      </c>
+      <c r="N23" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I24" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L23" s="5">
-        <v>206170</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="5" t="s">
+      <c r="J24" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" t="s">
         <v>112</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O24" s="5"/>
+      <c r="L24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2253,16 +2787,16 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K25" t="s">
         <v>77</v>
@@ -2278,141 +2812,139 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K26" s="5" t="s">
+      <c r="J26" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" t="s">
         <v>110</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26">
         <v>24.8</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O26" s="5"/>
+      <c r="M26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N26" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="5" t="s">
+      <c r="F27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="J27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" t="s">
+        <v>179</v>
+      </c>
+      <c r="L27" t="s">
+        <v>188</v>
+      </c>
+      <c r="M27" t="s">
+        <v>165</v>
+      </c>
+      <c r="N27" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" t="s">
+        <v>164</v>
+      </c>
+      <c r="M28" t="s">
+        <v>165</v>
+      </c>
+      <c r="N28" t="s">
         <v>166</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2462,94 +2994,92 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" t="s">
         <v>62</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="K30" t="s">
+        <v>176</v>
+      </c>
+      <c r="L30">
         <v>12000</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="O30" s="5"/>
+      <c r="M30" t="s">
+        <v>195</v>
+      </c>
+      <c r="N30" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="5" t="s">
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" t="s">
         <v>62</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" t="s">
         <v>112</v>
       </c>
-      <c r="L31" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O31" s="5"/>
+      <c r="L31" t="s">
+        <v>183</v>
+      </c>
+      <c r="M31" t="s">
+        <v>165</v>
+      </c>
+      <c r="N31" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2568,10 +3098,10 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
@@ -2596,139 +3126,136 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="5" t="s">
+      <c r="F33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" t="s">
         <v>39</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" t="s">
         <v>110</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33">
         <v>12</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O33" s="5"/>
+      <c r="M33" t="s">
+        <v>175</v>
+      </c>
+      <c r="N33" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="5" t="s">
+      <c r="F34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" t="s">
         <v>62</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M34" s="5" t="s">
+      <c r="K34" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" t="s">
+        <v>181</v>
+      </c>
+      <c r="M34" t="s">
+        <v>165</v>
+      </c>
+      <c r="N34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" t="s">
+        <v>162</v>
+      </c>
+      <c r="L35" t="s">
+        <v>164</v>
+      </c>
+      <c r="M35" t="s">
+        <v>165</v>
+      </c>
+      <c r="N35" t="s">
         <v>166</v>
       </c>
-      <c r="N34" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2778,94 +3305,92 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="5" t="s">
+      <c r="F37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" t="s">
         <v>62</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L37" s="5">
+      <c r="K37" t="s">
+        <v>176</v>
+      </c>
+      <c r="L37">
         <v>5000000</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="O37" s="5"/>
+      <c r="M37" t="s">
+        <v>195</v>
+      </c>
+      <c r="N37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" s="5" t="s">
+      <c r="F38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" t="s">
         <v>62</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" t="s">
         <v>112</v>
       </c>
-      <c r="L38" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O38" s="5"/>
+      <c r="L38" t="s">
+        <v>183</v>
+      </c>
+      <c r="M38" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -2884,10 +3409,10 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H39" t="s">
         <v>18</v>
@@ -2906,139 +3431,136 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="5" t="s">
+      <c r="F40" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" t="s">
         <v>39</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" t="s">
         <v>62</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" t="s">
         <v>110</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40">
         <v>125</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O40" s="5"/>
+      <c r="M40" t="s">
+        <v>175</v>
+      </c>
+      <c r="N40" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="5" t="s">
+      <c r="F41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" t="s">
         <v>39</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" t="s">
         <v>62</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" t="s">
+        <v>179</v>
+      </c>
+      <c r="L41" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" t="s">
+        <v>165</v>
+      </c>
+      <c r="N41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" t="s">
+        <v>162</v>
+      </c>
+      <c r="L42" t="s">
+        <v>163</v>
+      </c>
+      <c r="M42" t="s">
+        <v>165</v>
+      </c>
+      <c r="N42" t="s">
         <v>166</v>
       </c>
-      <c r="N41" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -3088,95 +3610,94 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H44" s="5" t="s">
+      <c r="F44" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" t="s">
         <v>39</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" t="s">
         <v>62</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L44" s="5">
+      <c r="K44" t="s">
+        <v>176</v>
+      </c>
+      <c r="L44">
         <v>17000</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="O44" s="5"/>
+      <c r="M44" t="s">
+        <v>195</v>
+      </c>
+      <c r="N44" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H45" s="5" t="s">
+      <c r="F45" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" t="s">
         <v>62</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" t="s">
         <v>112</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" t="s">
+        <v>184</v>
+      </c>
+      <c r="M45" t="s">
+        <v>165</v>
+      </c>
+      <c r="N45" t="s">
+        <v>187</v>
+      </c>
+      <c r="O45" t="s">
         <v>185</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3199,13 +3720,13 @@
         <v>107</v>
       </c>
       <c r="G46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K46" t="s">
         <v>77</v>
@@ -3217,143 +3738,140 @@
         <v>78</v>
       </c>
       <c r="N46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47" t="s">
+        <v>110</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47" t="s">
+        <v>175</v>
+      </c>
+      <c r="N47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" t="s">
+        <v>179</v>
+      </c>
+      <c r="L48" t="s">
+        <v>180</v>
+      </c>
+      <c r="M48" t="s">
+        <v>165</v>
+      </c>
+      <c r="N48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" t="s">
+        <v>120</v>
+      </c>
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" t="s">
         <v>162</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L47" s="5">
-        <v>100</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="M48" s="5" t="s">
+      <c r="L49" t="s">
+        <v>164</v>
+      </c>
+      <c r="M49" t="s">
+        <v>165</v>
+      </c>
+      <c r="N49" t="s">
         <v>166</v>
       </c>
-      <c r="N48" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O49" s="5"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -3403,94 +3921,92 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H51" s="5" t="s">
+      <c r="F51" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" t="s">
         <v>39</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" t="s">
         <v>62</v>
       </c>
-      <c r="K51" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L51" s="5">
+      <c r="K51" t="s">
+        <v>176</v>
+      </c>
+      <c r="L51">
         <v>100000</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="O51" s="5"/>
+      <c r="M51" t="s">
+        <v>195</v>
+      </c>
+      <c r="N51" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H52" s="5" t="s">
+      <c r="F52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" t="s">
         <v>62</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" t="s">
         <v>112</v>
       </c>
-      <c r="L52" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N52" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O52" s="5"/>
+      <c r="L52" t="s">
+        <v>184</v>
+      </c>
+      <c r="M52" t="s">
+        <v>165</v>
+      </c>
+      <c r="N52" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -3509,10 +4025,10 @@
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H53" t="s">
         <v>18</v>
@@ -3533,143 +4049,140 @@
         <v>78</v>
       </c>
       <c r="N53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" s="5" t="s">
+      <c r="F54" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" t="s">
         <v>62</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" t="s">
         <v>110</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54">
         <v>45</v>
       </c>
-      <c r="M54" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O54" s="5"/>
+      <c r="M54" t="s">
+        <v>175</v>
+      </c>
+      <c r="N54" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H55" s="5" t="s">
+      <c r="F55" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55" t="s">
+        <v>120</v>
+      </c>
+      <c r="H55" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" t="s">
         <v>62</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="M55" s="5" t="s">
+      <c r="K55" t="s">
+        <v>179</v>
+      </c>
+      <c r="L55" t="s">
+        <v>181</v>
+      </c>
+      <c r="M55" t="s">
+        <v>165</v>
+      </c>
+      <c r="N55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K56" t="s">
+        <v>162</v>
+      </c>
+      <c r="L56" t="s">
+        <v>164</v>
+      </c>
+      <c r="M56" t="s">
+        <v>165</v>
+      </c>
+      <c r="N56" t="s">
         <v>166</v>
       </c>
-      <c r="N55" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O55" s="5"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -3719,94 +4232,92 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H58" s="5" t="s">
+      <c r="F58" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" t="s">
+        <v>120</v>
+      </c>
+      <c r="H58" t="s">
         <v>18</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" t="s">
         <v>39</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" t="s">
         <v>62</v>
       </c>
-      <c r="K58" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L58" s="5">
+      <c r="K58" t="s">
+        <v>176</v>
+      </c>
+      <c r="L58">
         <v>24000</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="O58" s="5"/>
+      <c r="M58" t="s">
+        <v>195</v>
+      </c>
+      <c r="N58" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H59" s="5" t="s">
+      <c r="F59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" t="s">
         <v>39</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="J59" t="s">
         <v>62</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" t="s">
         <v>112</v>
       </c>
-      <c r="L59" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O59" s="5"/>
+      <c r="L59" t="s">
+        <v>183</v>
+      </c>
+      <c r="M59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N59" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -3828,7 +4339,7 @@
         <v>107</v>
       </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H60" t="s">
         <v>18</v>
@@ -3853,139 +4364,136 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="5" t="s">
+      <c r="F61" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" t="s">
+        <v>120</v>
+      </c>
+      <c r="H61" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" t="s">
         <v>39</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="J61" t="s">
         <v>62</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="K61" t="s">
         <v>110</v>
       </c>
-      <c r="L61" s="5">
-        <v>15</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="O61" s="5"/>
+      <c r="L61">
+        <v>15</v>
+      </c>
+      <c r="M61" t="s">
+        <v>175</v>
+      </c>
+      <c r="N61" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H62" s="5" t="s">
+      <c r="F62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" t="s">
         <v>18</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" t="s">
         <v>39</v>
       </c>
-      <c r="J62" s="5" t="s">
+      <c r="J62" t="s">
         <v>62</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K62" t="s">
+        <v>179</v>
+      </c>
+      <c r="L62" t="s">
         <v>180</v>
       </c>
-      <c r="L62" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="M62" s="5" t="s">
+      <c r="M62" t="s">
+        <v>165</v>
+      </c>
+      <c r="N62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" t="s">
+        <v>62</v>
+      </c>
+      <c r="K63" t="s">
+        <v>162</v>
+      </c>
+      <c r="L63" t="s">
+        <v>164</v>
+      </c>
+      <c r="M63" t="s">
+        <v>165</v>
+      </c>
+      <c r="N63" t="s">
         <v>166</v>
       </c>
-      <c r="N62" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O62" s="5"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O63" s="5"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -4032,12 +4540,12 @@
       </c>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K65" s="5" t="s">
-        <v>177</v>
+      <c r="K65" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K66" s="5" t="s">
+      <c r="K66" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4047,18 +4555,18 @@
       </c>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K68" s="5" t="s">
+      <c r="K68" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="69" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K69" s="5" t="s">
-        <v>180</v>
+      <c r="K69" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K70" s="5" t="s">
-        <v>163</v>
+      <c r="K70" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="11:11" x14ac:dyDescent="0.25">
@@ -4082,7 +4590,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4114,146 +4622,146 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>82.2</v>
+        <v>43.4</v>
       </c>
       <c r="C2" s="4">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>61.4</v>
+        <v>5.5</v>
       </c>
       <c r="E2" t="s">
         <v>107</v>
       </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>6.1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>12</v>
+        <v>21.4</v>
+      </c>
+      <c r="C3">
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>17.399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="C4" s="4">
-        <v>125</v>
-      </c>
-      <c r="D4">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>24.8</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>21.4</v>
-      </c>
-      <c r="C6">
-        <v>46</v>
+        <v>6.1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>17.399999999999999</v>
       </c>
       <c r="C7" s="4">
-        <v>45</v>
+        <v>125</v>
+      </c>
+      <c r="D7">
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>24.8</v>
+        <v>82.2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>61.4</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9">
-        <v>43.4</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4">
-        <v>60</v>
-      </c>
-      <c r="D9">
-        <v>5.5</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>107</v>
       </c>
-      <c r="F9" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>5.2</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>107</v>
@@ -4261,7 +4769,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -4270,23 +4778,23 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4294,51 +4802,54 @@
         <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
+    <sortCondition ref="A2:A10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B968F34-D1F1-468D-861C-B3678BFED83F}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4496,56 +5007,99 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="str">
+      <c r="A22" t="str">
         <f>'data add''l'!A1</f>
         <v>species</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="str">
-        <f>'data add''l'!B1</f>
-        <v>Lmat</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="str">
-        <f>'data add''l'!C1</f>
-        <v>Lmax</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="str">
-        <f>'data add''l'!D1</f>
-        <v>Wmax</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="str">
-        <f>'data add''l'!E1</f>
-        <v>reference</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="str">
-        <f>'data add''l'!F1</f>
-        <v>notes</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4560,7 +5114,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4717,19 +5271,19 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
         <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>132</v>
       </c>
       <c r="D8">
         <v>2005</v>
       </c>
       <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
         <v>133</v>
-      </c>
-      <c r="F8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4740,13 +5294,13 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4754,22 +5308,22 @@
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>2002</v>
       </c>
       <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" t="s">
         <v>141</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>142</v>
-      </c>
-      <c r="G10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4780,33 +5334,33 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11">
         <v>1978</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
         <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>149</v>
       </c>
       <c r="D12">
         <v>2004</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4814,65 +5368,75 @@
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13">
         <v>1966</v>
       </c>
       <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" t="s">
         <v>152</v>
-      </c>
-      <c r="F13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" t="s">
         <v>214</v>
-      </c>
-      <c r="B14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" t="s">
-        <v>216</v>
       </c>
       <c r="D14">
         <v>2018</v>
       </c>
       <c r="E14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" t="s">
         <v>217</v>
-      </c>
-      <c r="F14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D15">
         <v>2007</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G15" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4880,21 +5444,21 @@
         <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
         <v>122</v>
       </c>
-      <c r="B25" t="s">
-        <v>123</v>
-      </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4908,111 +5472,1628 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11130ADC-14A2-4DAD-919F-97FAE6F477E5}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3.1688540000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.431289641</v>
+      </c>
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2">
+        <v>225600</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>43.4</v>
+      </c>
+      <c r="N2">
+        <v>60</v>
+      </c>
+      <c r="O2">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4.8579160000000003E-3</v>
+      </c>
+      <c r="F3">
+        <v>5.9969100999999997E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3">
+        <v>41000</v>
+      </c>
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>21.4</v>
+      </c>
+      <c r="N3">
+        <v>46</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5.7064590999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.229793462</v>
+      </c>
+      <c r="G4" t="s">
         <v>163</v>
       </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4">
+        <v>21000</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>5.2</v>
+      </c>
+      <c r="N4">
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>30.9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.47260236500000002</v>
+      </c>
+      <c r="F5">
+        <v>0.265490324</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5">
+        <v>206170</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>24.8</v>
+      </c>
+      <c r="O5">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>8.3657030000000004E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.14750365900000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I6" t="s">
+        <v>351</v>
+      </c>
+      <c r="J6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6">
+        <v>12000</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>6.1</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>28.4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4.6645249E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.33460725299999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I7" t="s">
+        <v>356</v>
+      </c>
+      <c r="J7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K7">
+        <v>5000000</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="N7">
+        <v>125</v>
+      </c>
+      <c r="O7">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6.8400000000000004E-4</v>
+      </c>
+      <c r="F8">
+        <v>4.4234835E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" t="s">
+        <v>351</v>
+      </c>
+      <c r="J8" t="s">
+        <v>396</v>
+      </c>
+      <c r="K8">
+        <v>17000</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>82.2</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>28.9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5.62E-4</v>
+      </c>
+      <c r="F9">
+        <v>2.8459912E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" t="s">
+        <v>359</v>
+      </c>
+      <c r="I9" t="s">
+        <v>356</v>
+      </c>
+      <c r="J9" t="s">
+        <v>396</v>
+      </c>
+      <c r="K9">
+        <v>100000</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>17</v>
+      </c>
+      <c r="N9">
+        <v>45</v>
+      </c>
+      <c r="O9">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>9.1513252000000003E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.28390795299999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" t="s">
+        <v>356</v>
+      </c>
+      <c r="J10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10">
+        <v>24000</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>24.8</v>
+      </c>
+      <c r="P10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11">
+        <v>1.0062280000000001E-3</v>
+      </c>
+      <c r="F11">
+        <v>4.3828264999999998E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" t="s">
+        <v>359</v>
+      </c>
+      <c r="I11" t="s">
+        <v>351</v>
+      </c>
+      <c r="J11" t="s">
+        <v>352</v>
+      </c>
+      <c r="K11">
+        <v>32000</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>17</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>32</v>
+      </c>
+      <c r="P11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.11111111111111E+16</v>
+      </c>
+      <c r="F12">
+        <v>1.1111111111111101E+22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>359</v>
+      </c>
+      <c r="I12" t="s">
+        <v>351</v>
+      </c>
+      <c r="J12" t="s">
+        <v>352</v>
+      </c>
+      <c r="K12" s="9">
+        <f>5648*253/3</f>
+        <v>476314.66666666669</v>
+      </c>
+      <c r="L12">
+        <v>104</v>
+      </c>
+      <c r="M12">
+        <v>115</v>
+      </c>
+      <c r="N12">
+        <v>610</v>
+      </c>
+      <c r="O12">
+        <v>30.7</v>
+      </c>
+      <c r="P12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13">
+        <v>2.876029E-3</v>
+      </c>
+      <c r="F13">
+        <v>2.902911E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" t="s">
+        <v>358</v>
+      </c>
+      <c r="I13" t="s">
+        <v>356</v>
+      </c>
+      <c r="J13" t="s">
+        <v>352</v>
+      </c>
+      <c r="K13">
+        <v>3000</v>
+      </c>
+      <c r="L13">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <v>20.5</v>
+      </c>
+      <c r="N13">
+        <v>95</v>
+      </c>
+      <c r="O13">
+        <v>31</v>
+      </c>
+      <c r="P13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14">
+        <v>1.282622E-3</v>
+      </c>
+      <c r="F14">
+        <v>3.0574077000000002E-2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>359</v>
+      </c>
+      <c r="I14" t="s">
+        <v>356</v>
+      </c>
+      <c r="J14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14">
+        <v>1000</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="N14">
+        <v>37</v>
+      </c>
+      <c r="O14">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="6">
+        <v>7.9699999999999997E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.5246381999999999E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" t="s">
+        <v>356</v>
+      </c>
+      <c r="J15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>18.5</v>
+      </c>
+      <c r="N15">
+        <v>49.4</v>
+      </c>
+      <c r="O15" s="7">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16">
+        <v>1.132749E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.5490324E-2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" t="s">
+        <v>351</v>
+      </c>
+      <c r="J16" t="s">
+        <v>396</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N16">
+        <v>23.5</v>
+      </c>
+      <c r="O16">
+        <v>26</v>
+      </c>
+      <c r="P16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6.4400000000000004E-4</v>
+      </c>
+      <c r="F17">
+        <v>1.5043096000000001E-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" t="s">
+        <v>356</v>
+      </c>
+      <c r="J17" t="s">
+        <v>396</v>
+      </c>
+      <c r="K17">
+        <v>16800</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>31</v>
+      </c>
+      <c r="O17">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3.57E-4</v>
+      </c>
+      <c r="F18">
+        <v>6.4644660000000003E-3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" t="s">
+        <v>358</v>
+      </c>
+      <c r="I18" t="s">
+        <v>351</v>
+      </c>
+      <c r="J18" t="s">
+        <v>352</v>
+      </c>
+      <c r="K18">
+        <v>70000</v>
+      </c>
+      <c r="L18">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>56</v>
+      </c>
+      <c r="N18">
+        <v>132</v>
+      </c>
+      <c r="O18">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5.4100000000000003E-4</v>
+      </c>
+      <c r="F19">
+        <v>2.236136E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" t="s">
+        <v>359</v>
+      </c>
+      <c r="I19" t="s">
+        <v>356</v>
+      </c>
+      <c r="J19" t="s">
+        <v>352</v>
+      </c>
+      <c r="K19">
+        <v>11000000</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>40</v>
+      </c>
+      <c r="N19">
+        <v>91</v>
+      </c>
+      <c r="O19">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>2.667141E-3</v>
+      </c>
+      <c r="F20">
+        <v>2.6101804999999999E-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" t="s">
+        <v>356</v>
+      </c>
+      <c r="J20" t="s">
+        <v>352</v>
+      </c>
+      <c r="K20">
+        <v>789</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>38</v>
+      </c>
+      <c r="O20">
+        <v>16.8</v>
+      </c>
+      <c r="P20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q20">
+    <sortCondition descending="1" ref="D2:D20"/>
+    <sortCondition ref="C2:C20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF13C34-08F2-49F0-88C5-AFB6146CDF08}">
+  <dimension ref="A1:B114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>212</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>282</v>
+      </c>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>284</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>300</v>
+      </c>
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>313</v>
+      </c>
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>317</v>
+      </c>
+      <c r="B81" s="7"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>318</v>
+      </c>
+      <c r="B82" s="7"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>327</v>
+      </c>
+      <c r="B92" s="8"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>328</v>
+      </c>
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>329</v>
+      </c>
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>336</v>
+      </c>
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5030,17 +7111,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f60d4be9-3557-4154-8f7f-0f7fc20459a7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e232c206-309b-474b-8da4-c8d575bef4c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010083273B062B35CA42A1E0A0B73A10A11A" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="701d8ad82fac035fae8804b0a6881e55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e232c206-309b-474b-8da4-c8d575bef4c3" xmlns:ns3="4fa31878-c15f-4cc2-b832-57ca6f3405c8" xmlns:ns4="f60d4be9-3557-4154-8f7f-0f7fc20459a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11990063e850fe3384480a77fc500bb0" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e232c206-309b-474b-8da4-c8d575bef4c3"/>
@@ -5256,6 +7326,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f60d4be9-3557-4154-8f7f-0f7fc20459a7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e232c206-309b-474b-8da4-c8d575bef4c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A49AB8B-2476-4025-BD19-0D049D4B8192}">
   <ds:schemaRefs>
@@ -5265,24 +7346,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CBF86D7-C64D-4782-A218-1C314E358303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e232c206-309b-474b-8da4-c8d575bef4c3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4fa31878-c15f-4cc2-b832-57ca6f3405c8"/>
-    <ds:schemaRef ds:uri="f60d4be9-3557-4154-8f7f-0f7fc20459a7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27186B7E-23F8-47D9-B8E0-C9F0EFB09031}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5300,4 +7363,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CBF86D7-C64D-4782-A218-1C314E358303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e232c206-309b-474b-8da4-c8d575bef4c3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4fa31878-c15f-4cc2-b832-57ca6f3405c8"/>
+    <ds:schemaRef ds:uri="f60d4be9-3557-4154-8f7f-0f7fc20459a7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/fish traits/fish_data/Traits_DataEntryFishes_2023-02-28.xlsx
+++ b/fish traits/fish_data/Traits_DataEntryFishes_2023-02-28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub Gdrive Projects\drought_traits\fish traits\fish_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5716BA34-A2B9-4B96-BC18-B49935C55152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3079B491-6485-4EB7-9D5C-D9BAE5C5A8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23610" yWindow="855" windowWidth="22785" windowHeight="13320" activeTab="4" xr2:uid="{BEE8D159-CA49-48BE-AEF6-027E86137074}"/>
+    <workbookView xWindow="43185" yWindow="4215" windowWidth="12870" windowHeight="11670" activeTab="2" xr2:uid="{BEE8D159-CA49-48BE-AEF6-027E86137074}"/>
   </bookViews>
   <sheets>
     <sheet name="og data" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="423">
   <si>
     <t>target_taxon_name</t>
   </si>
@@ -1268,6 +1268,69 @@
   </si>
   <si>
     <t>FishBase: fecundity, Lmax, therm_tol = max from "preferred range"; Love: l_mat, life_span</t>
+  </si>
+  <si>
+    <t>drought_period_type</t>
+  </si>
+  <si>
+    <t>drought_period_number</t>
+  </si>
+  <si>
+    <t>drought_year</t>
+  </si>
+  <si>
+    <t>drought_year_trunc</t>
+  </si>
+  <si>
+    <t>water_year_sac</t>
+  </si>
+  <si>
+    <t>inflow_annual_cfs</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Phos</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Secchi</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>drought variables</t>
+  </si>
+  <si>
+    <t>from 'drought_variables.csv'</t>
+  </si>
+  <si>
+    <t>year sampled</t>
+  </si>
+  <si>
+    <t>drought or non-drought, based I think on SVI index</t>
+  </si>
+  <si>
+    <t>non-drought and drought year numbers (eg D1 is 1976 and 1977, a two-year drought period followed by N2 from 1978-1986 a 9-year non-drought period (Dry years, like 1981 and 1987 were preceded by comparatively wet years)</t>
+  </si>
+  <si>
+    <t>number of sequential years categorized as Dry or Critical; comparatively wet years are '0', a single Dry or Critical year is '1' and, if followed by another D/C year that one would be '2' and so on</t>
+  </si>
+  <si>
+    <t>same as 'drought_year' except that the series is truncated: 0, 1, 2, 3+</t>
+  </si>
+  <si>
+    <t>categories based on the SVI: Wet, Above Normal, Below Normal, Dry, Critical (from wettest to driest)</t>
+  </si>
+  <si>
+    <t>mean annual inflow in cubic feet per second? a measure of flow; disregards how that freshwater enters over the course of the water year</t>
   </si>
 </sst>
 </file>
@@ -1693,25 +1756,25 @@
       <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="74.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1802,7 +1865,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1846,7 +1909,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1887,7 +1950,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1931,7 +1994,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1975,7 +2038,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2019,7 +2082,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -2066,7 +2129,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2110,7 +2173,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -2154,7 +2217,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2192,7 +2255,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -2236,7 +2299,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -2283,7 +2346,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2327,7 +2390,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -2374,7 +2437,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2418,7 +2481,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2462,7 +2525,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -2503,7 +2566,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2547,7 +2610,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2591,7 +2654,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2635,7 +2698,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -2682,7 +2745,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -2726,7 +2789,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -2770,7 +2833,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -2811,7 +2874,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2855,7 +2918,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2902,7 +2965,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -2946,7 +3009,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2993,7 +3056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -3037,7 +3100,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -3081,7 +3144,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -3125,7 +3188,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3169,7 +3232,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3213,7 +3276,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -3257,7 +3320,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3304,7 +3367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -3348,7 +3411,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3392,7 +3455,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3430,7 +3493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -3474,7 +3537,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3518,7 +3581,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3562,7 +3625,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -3609,7 +3672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -3653,7 +3716,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3700,7 +3763,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3741,7 +3804,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -3785,7 +3848,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -3829,7 +3892,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -3873,7 +3936,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -3920,7 +3983,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -3964,7 +4027,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -4008,7 +4071,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -4052,7 +4115,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -4096,7 +4159,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -4140,7 +4203,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -4184,7 +4247,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -4231,7 +4294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -4275,7 +4338,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -4319,7 +4382,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -4363,7 +4426,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4407,7 +4470,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -4451,7 +4514,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -4495,7 +4558,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -4539,37 +4602,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K65" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K66" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K68" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K69" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K70" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K71" t="s">
         <v>19</v>
       </c>
@@ -4593,14 +4656,14 @@
       <selection activeCell="B2" sqref="B2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4620,7 +4683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -4640,7 +4703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -4657,7 +4720,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -4671,7 +4734,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -4688,7 +4751,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -4705,7 +4768,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -4725,7 +4788,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4742,7 +4805,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -4753,7 +4816,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -4767,7 +4830,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -4781,7 +4844,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -4789,7 +4852,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>206</v>
       </c>
@@ -4797,7 +4860,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -4805,7 +4868,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -4813,7 +4876,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -4821,7 +4884,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -4829,7 +4892,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -4847,25 +4910,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B968F34-D1F1-468D-861C-B3678BFED83F}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="175.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="27.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.54296875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -4873,7 +4936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -4881,7 +4944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -4889,7 +4952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4897,7 +4960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -4905,7 +4968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -4913,7 +4976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4921,7 +4984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -4929,7 +4992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -4937,7 +5000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -4945,7 +5008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -4953,7 +5016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -4961,7 +5024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -4969,7 +5032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -4977,7 +5040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -4985,7 +5048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -4993,12 +5056,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -5006,7 +5069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="str">
         <f>'data add''l'!A1</f>
         <v>species</v>
@@ -5015,7 +5078,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -5023,7 +5086,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -5031,7 +5094,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>360</v>
       </c>
@@ -5039,7 +5102,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -5047,7 +5110,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -5055,7 +5118,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>351</v>
       </c>
@@ -5063,7 +5126,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -5071,7 +5134,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>357</v>
       </c>
@@ -5079,7 +5142,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>361</v>
       </c>
@@ -5087,7 +5150,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -5095,13 +5158,113 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>114</v>
       </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>402</v>
+      </c>
+      <c r="B38" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>403</v>
+      </c>
+      <c r="B39" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>404</v>
+      </c>
+      <c r="B40" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>405</v>
+      </c>
+      <c r="B41" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>406</v>
+      </c>
+      <c r="B42" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>407</v>
+      </c>
+      <c r="B43" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>408</v>
+      </c>
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>409</v>
+      </c>
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>411</v>
+      </c>
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>412</v>
+      </c>
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>413</v>
+      </c>
+      <c r="B49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5117,16 +5280,16 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -5146,7 +5309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -5166,7 +5329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -5186,7 +5349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -5206,7 +5369,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -5226,7 +5389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -5246,7 +5409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -5266,7 +5429,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -5286,7 +5449,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -5303,7 +5466,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -5326,7 +5489,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -5343,7 +5506,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -5363,7 +5526,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -5383,7 +5546,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -5406,7 +5569,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -5429,17 +5592,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -5450,7 +5613,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -5474,29 +5637,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11130ADC-14A2-4DAD-919F-97FAE6F477E5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5549,7 +5712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5602,7 +5765,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -5655,7 +5818,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -5705,7 +5868,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -5758,7 +5921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -5811,7 +5974,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -5864,7 +6027,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5914,7 +6077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -5964,7 +6127,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -6014,7 +6177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -6061,7 +6224,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -6109,7 +6272,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>206</v>
       </c>
@@ -6157,7 +6320,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>205</v>
       </c>
@@ -6204,7 +6367,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -6251,7 +6414,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -6298,7 +6461,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>235</v>
       </c>
@@ -6345,7 +6508,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>236</v>
       </c>
@@ -6392,7 +6555,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -6439,7 +6602,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>207</v>
       </c>
@@ -6500,598 +6663,598 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+      <selection activeCell="H31" sqref="H31:H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>258</v>
       </c>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>259</v>
       </c>
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>261</v>
       </c>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>275</v>
       </c>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>281</v>
       </c>
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>282</v>
       </c>
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>284</v>
       </c>
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>285</v>
       </c>
       <c r="B49" s="7"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>300</v>
       </c>
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>313</v>
       </c>
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>317</v>
       </c>
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>318</v>
       </c>
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>327</v>
       </c>
       <c r="B92" s="8"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>328</v>
       </c>
       <c r="B93" s="8"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>329</v>
       </c>
       <c r="B94" s="8"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>330</v>
       </c>
       <c r="B95" s="8"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>336</v>
       </c>
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>349</v>
       </c>
@@ -7111,6 +7274,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f60d4be9-3557-4154-8f7f-0f7fc20459a7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e232c206-309b-474b-8da4-c8d575bef4c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010083273B062B35CA42A1E0A0B73A10A11A" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="701d8ad82fac035fae8804b0a6881e55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e232c206-309b-474b-8da4-c8d575bef4c3" xmlns:ns3="4fa31878-c15f-4cc2-b832-57ca6f3405c8" xmlns:ns4="f60d4be9-3557-4154-8f7f-0f7fc20459a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11990063e850fe3384480a77fc500bb0" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e232c206-309b-474b-8da4-c8d575bef4c3"/>
@@ -7326,17 +7500,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f60d4be9-3557-4154-8f7f-0f7fc20459a7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e232c206-309b-474b-8da4-c8d575bef4c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A49AB8B-2476-4025-BD19-0D049D4B8192}">
   <ds:schemaRefs>
@@ -7346,6 +7509,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CBF86D7-C64D-4782-A218-1C314E358303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e232c206-309b-474b-8da4-c8d575bef4c3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4fa31878-c15f-4cc2-b832-57ca6f3405c8"/>
+    <ds:schemaRef ds:uri="f60d4be9-3557-4154-8f7f-0f7fc20459a7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27186B7E-23F8-47D9-B8E0-C9F0EFB09031}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7363,22 +7544,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CBF86D7-C64D-4782-A218-1C314E358303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e232c206-309b-474b-8da4-c8d575bef4c3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4fa31878-c15f-4cc2-b832-57ca6f3405c8"/>
-    <ds:schemaRef ds:uri="f60d4be9-3557-4154-8f7f-0f7fc20459a7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fish traits/fish_data/Traits_DataEntryFishes_2023-02-28.xlsx
+++ b/fish traits/fish_data/Traits_DataEntryFishes_2023-02-28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub Gdrive Projects\drought_traits\fish traits\fish_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3079B491-6485-4EB7-9D5C-D9BAE5C5A8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC3AFE4-8968-4C49-88B2-17157B3DCBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43185" yWindow="4215" windowWidth="12870" windowHeight="11670" activeTab="2" xr2:uid="{BEE8D159-CA49-48BE-AEF6-027E86137074}"/>
+    <workbookView xWindow="405" yWindow="0" windowWidth="23205" windowHeight="13890" activeTab="4" xr2:uid="{BEE8D159-CA49-48BE-AEF6-027E86137074}"/>
   </bookViews>
   <sheets>
     <sheet name="og data" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,12 @@
     <sheet name="key" sheetId="2" r:id="rId3"/>
     <sheet name="references" sheetId="3" r:id="rId4"/>
     <sheet name="data" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="spp" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">key!$A$21:$H$42</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="445">
   <si>
     <t>target_taxon_name</t>
   </si>
@@ -403,9 +407,6 @@
     <t>habitat</t>
   </si>
   <si>
-    <t>duh</t>
-  </si>
-  <si>
     <t>uhm…notes</t>
   </si>
   <si>
@@ -1114,9 +1115,6 @@
     <t>yellowfin_goby</t>
   </si>
   <si>
-    <t>original_dataset</t>
-  </si>
-  <si>
     <t>migratory</t>
   </si>
   <si>
@@ -1153,9 +1151,6 @@
     <t>number of eggs female produces annually, usually based on max (max age or size)</t>
   </si>
   <si>
-    <t>benthic, pelagic, littoral, etc.</t>
-  </si>
-  <si>
     <t>max reported age in years</t>
   </si>
   <si>
@@ -1165,9 +1160,6 @@
     <t>uncertain about therm_tol; lmax from fishbase</t>
   </si>
   <si>
-    <t>marine, freshwater, euryhaline (found in brackish water or capable of moving freely btwn fresh and saltwater), anadromous</t>
-  </si>
-  <si>
     <t>Clark 1929. The life history of the California jacksmelt, Atherinopsis californiensis. Calif. Div.Fish and Game, Fish Bull. 16. 22 p.</t>
   </si>
   <si>
@@ -1249,9 +1241,6 @@
     <t>name_abr</t>
   </si>
   <si>
-    <t>migratory/non-migratory; restricted to adult form, seasonal or reproductive (i.e., no diel migrators or ontogenetic habitat shifts)</t>
-  </si>
-  <si>
     <t>benthopelagic</t>
   </si>
   <si>
@@ -1331,6 +1320,87 @@
   </si>
   <si>
     <t>mean annual inflow in cubic feet per second? a measure of flow; disregards how that freshwater enters over the course of the water year</t>
+  </si>
+  <si>
+    <t>taxonomic classification at species level</t>
+  </si>
+  <si>
+    <t>common name</t>
+  </si>
+  <si>
+    <t>abbreviated version of common name</t>
+  </si>
+  <si>
+    <t>percentage of summed species counts of the summed counts for all species</t>
+  </si>
+  <si>
+    <t>anadromous, euryhaline, marine, freshwater</t>
+  </si>
+  <si>
+    <t>migratory or  nonmigratory, generally refers to seasonal or reproductive migrations, not diel migrations</t>
+  </si>
+  <si>
+    <t>benthic, pelagic, littoral, benthopelagic</t>
+  </si>
+  <si>
+    <t>numeric estimate of trophic level from FishBase</t>
+  </si>
+  <si>
+    <t>reproduction</t>
+  </si>
+  <si>
+    <t>troph_se</t>
+  </si>
+  <si>
+    <t>troph</t>
+  </si>
+  <si>
+    <t>standard error +/-</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>demersal eggs, broadcast[ spawners], [ovo-]viviparous, nest[ building]</t>
+  </si>
+  <si>
+    <t>planktivore, microcarnivore, piscivore, detritivore, herbivore(?), omnivore</t>
+  </si>
+  <si>
+    <t>microcarnivore</t>
+  </si>
+  <si>
+    <t>demersal</t>
+  </si>
+  <si>
+    <t>planktivore</t>
+  </si>
+  <si>
+    <t>adhesive</t>
+  </si>
+  <si>
+    <t>piscivore</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>fish_vul</t>
+  </si>
+  <si>
+    <t>fishing vulnerability (x out of 100; FishBase)</t>
+  </si>
+  <si>
+    <t>invertivore</t>
+  </si>
+  <si>
+    <t>carnivore</t>
+  </si>
+  <si>
+    <t>viviparous</t>
+  </si>
+  <si>
+    <t>omnivorous</t>
   </si>
 </sst>
 </file>
@@ -1756,25 +1826,25 @@
       <selection pane="bottomLeft" activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" customWidth="1"/>
-    <col min="10" max="10" width="22.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="74.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +1891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1838,10 +1908,10 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -1853,19 +1923,19 @@
         <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L2">
         <v>225600</v>
       </c>
       <c r="M2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1882,10 +1952,10 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -1900,16 +1970,16 @@
         <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1929,13 +1999,13 @@
         <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K4" t="s">
         <v>77</v>
@@ -1947,10 +2017,10 @@
         <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1967,10 +2037,10 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -1988,13 +2058,13 @@
         <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -2011,10 +2081,10 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
@@ -2026,19 +2096,19 @@
         <v>62</v>
       </c>
       <c r="K6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" t="s">
         <v>179</v>
       </c>
-      <c r="L6" t="s">
-        <v>180</v>
-      </c>
       <c r="M6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2055,10 +2125,10 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -2070,19 +2140,19 @@
         <v>62</v>
       </c>
       <c r="K7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" t="s">
         <v>162</v>
       </c>
-      <c r="L7" t="s">
-        <v>163</v>
-      </c>
       <c r="M7" t="s">
+        <v>164</v>
+      </c>
+      <c r="N7" t="s">
         <v>165</v>
       </c>
-      <c r="N7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -2111,7 +2181,7 @@
         <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -2129,7 +2199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2149,7 +2219,7 @@
         <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -2158,22 +2228,22 @@
         <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L9">
         <v>41000</v>
       </c>
       <c r="M9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -2190,10 +2260,10 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -2202,22 +2272,22 @@
         <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
         <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -2237,7 +2307,7 @@
         <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
@@ -2255,7 +2325,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -2275,7 +2345,7 @@
         <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
@@ -2284,7 +2354,7 @@
         <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
         <v>110</v>
@@ -2293,13 +2363,13 @@
         <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -2316,10 +2386,10 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
@@ -2328,25 +2398,25 @@
         <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N13" t="s">
+        <v>185</v>
+      </c>
+      <c r="O13" t="s">
         <v>188</v>
       </c>
-      <c r="M13" t="s">
-        <v>165</v>
-      </c>
-      <c r="N13" t="s">
-        <v>186</v>
-      </c>
-      <c r="O13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2366,7 +2436,7 @@
         <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
@@ -2375,22 +2445,22 @@
         <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" t="s">
         <v>164</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>165</v>
       </c>
-      <c r="N14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -2437,7 +2507,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2454,10 +2524,10 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
@@ -2469,19 +2539,19 @@
         <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L16">
         <v>21000</v>
       </c>
       <c r="M16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2498,10 +2568,10 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
@@ -2516,16 +2586,16 @@
         <v>112</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -2545,13 +2615,13 @@
         <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
         <v>77</v>
@@ -2563,10 +2633,10 @@
         <v>78</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2583,10 +2653,10 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H19" t="s">
         <v>18</v>
@@ -2604,13 +2674,13 @@
         <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2627,10 +2697,10 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
         <v>18</v>
@@ -2642,19 +2712,19 @@
         <v>62</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2671,10 +2741,10 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
         <v>18</v>
@@ -2686,19 +2756,19 @@
         <v>62</v>
       </c>
       <c r="K21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" t="s">
         <v>162</v>
       </c>
-      <c r="L21" t="s">
-        <v>163</v>
-      </c>
       <c r="M21" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" t="s">
         <v>165</v>
       </c>
-      <c r="N21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -2715,7 +2785,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -2742,10 +2812,10 @@
         <v>41</v>
       </c>
       <c r="O22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -2762,10 +2832,10 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H23" t="s">
         <v>18</v>
@@ -2774,22 +2844,22 @@
         <v>39</v>
       </c>
       <c r="J23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L23">
         <v>206170</v>
       </c>
       <c r="M23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -2806,10 +2876,10 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" t="s">
         <v>18</v>
@@ -2818,22 +2888,22 @@
         <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K24" t="s">
         <v>112</v>
       </c>
       <c r="L24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -2850,16 +2920,16 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K25" t="s">
         <v>77</v>
@@ -2874,7 +2944,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2891,10 +2961,10 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" t="s">
         <v>18</v>
@@ -2903,7 +2973,7 @@
         <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K26" t="s">
         <v>110</v>
@@ -2912,13 +2982,13 @@
         <v>24.8</v>
       </c>
       <c r="M26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2935,10 +3005,10 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" t="s">
         <v>18</v>
@@ -2947,25 +3017,25 @@
         <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -2985,7 +3055,7 @@
         <v>107</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" t="s">
         <v>18</v>
@@ -2994,22 +3064,22 @@
         <v>39</v>
       </c>
       <c r="J28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s">
+        <v>163</v>
+      </c>
+      <c r="M28" t="s">
         <v>164</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>165</v>
       </c>
-      <c r="N28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -3056,7 +3126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -3073,10 +3143,10 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
@@ -3088,19 +3158,19 @@
         <v>62</v>
       </c>
       <c r="K30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L30">
         <v>12000</v>
       </c>
       <c r="M30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -3117,10 +3187,10 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -3135,16 +3205,16 @@
         <v>112</v>
       </c>
       <c r="L31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -3161,10 +3231,10 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
@@ -3188,7 +3258,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3205,10 +3275,10 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H33" t="s">
         <v>18</v>
@@ -3226,13 +3296,13 @@
         <v>12</v>
       </c>
       <c r="M33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3249,10 +3319,10 @@
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H34" t="s">
         <v>18</v>
@@ -3264,19 +3334,19 @@
         <v>62</v>
       </c>
       <c r="K34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -3293,10 +3363,10 @@
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
         <v>18</v>
@@ -3308,19 +3378,19 @@
         <v>62</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s">
+        <v>163</v>
+      </c>
+      <c r="M35" t="s">
         <v>164</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>165</v>
       </c>
-      <c r="N35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3367,7 +3437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -3384,10 +3454,10 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H37" t="s">
         <v>18</v>
@@ -3399,19 +3469,19 @@
         <v>62</v>
       </c>
       <c r="K37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L37">
         <v>5000000</v>
       </c>
       <c r="M37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3428,10 +3498,10 @@
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H38" t="s">
         <v>18</v>
@@ -3446,16 +3516,16 @@
         <v>112</v>
       </c>
       <c r="L38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3472,10 +3542,10 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H39" t="s">
         <v>18</v>
@@ -3493,7 +3563,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -3510,10 +3580,10 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" t="s">
         <v>18</v>
@@ -3531,13 +3601,13 @@
         <v>125</v>
       </c>
       <c r="M40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3554,10 +3624,10 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
@@ -3569,19 +3639,19 @@
         <v>62</v>
       </c>
       <c r="K41" t="s">
+        <v>178</v>
+      </c>
+      <c r="L41" t="s">
         <v>179</v>
       </c>
-      <c r="L41" t="s">
-        <v>180</v>
-      </c>
       <c r="M41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3598,10 +3668,10 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
@@ -3613,19 +3683,19 @@
         <v>62</v>
       </c>
       <c r="K42" t="s">
+        <v>161</v>
+      </c>
+      <c r="L42" t="s">
         <v>162</v>
       </c>
-      <c r="L42" t="s">
-        <v>163</v>
-      </c>
       <c r="M42" t="s">
+        <v>164</v>
+      </c>
+      <c r="N42" t="s">
         <v>165</v>
       </c>
-      <c r="N42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -3672,7 +3742,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -3689,10 +3759,10 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
@@ -3704,19 +3774,19 @@
         <v>62</v>
       </c>
       <c r="K44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L44">
         <v>17000</v>
       </c>
       <c r="M44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3733,10 +3803,10 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
@@ -3751,19 +3821,19 @@
         <v>112</v>
       </c>
       <c r="L45" t="s">
+        <v>183</v>
+      </c>
+      <c r="M45" t="s">
+        <v>164</v>
+      </c>
+      <c r="N45" t="s">
+        <v>186</v>
+      </c>
+      <c r="O45" t="s">
         <v>184</v>
       </c>
-      <c r="M45" t="s">
-        <v>165</v>
-      </c>
-      <c r="N45" t="s">
-        <v>187</v>
-      </c>
-      <c r="O45" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3783,13 +3853,13 @@
         <v>107</v>
       </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K46" t="s">
         <v>77</v>
@@ -3801,10 +3871,10 @@
         <v>78</v>
       </c>
       <c r="N46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -3821,10 +3891,10 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H47" t="s">
         <v>18</v>
@@ -3842,13 +3912,13 @@
         <v>100</v>
       </c>
       <c r="M47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -3865,10 +3935,10 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
@@ -3880,19 +3950,19 @@
         <v>62</v>
       </c>
       <c r="K48" t="s">
+        <v>178</v>
+      </c>
+      <c r="L48" t="s">
         <v>179</v>
       </c>
-      <c r="L48" t="s">
-        <v>180</v>
-      </c>
       <c r="M48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -3909,10 +3979,10 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
@@ -3924,19 +3994,19 @@
         <v>62</v>
       </c>
       <c r="K49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L49" t="s">
+        <v>163</v>
+      </c>
+      <c r="M49" t="s">
         <v>164</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>165</v>
       </c>
-      <c r="N49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -3983,7 +4053,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -4000,10 +4070,10 @@
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H51" t="s">
         <v>18</v>
@@ -4015,19 +4085,19 @@
         <v>62</v>
       </c>
       <c r="K51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L51">
         <v>100000</v>
       </c>
       <c r="M51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -4044,10 +4114,10 @@
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H52" t="s">
         <v>18</v>
@@ -4062,16 +4132,16 @@
         <v>112</v>
       </c>
       <c r="L52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N52" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -4088,10 +4158,10 @@
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H53" t="s">
         <v>18</v>
@@ -4112,10 +4182,10 @@
         <v>78</v>
       </c>
       <c r="N53" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -4132,10 +4202,10 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H54" t="s">
         <v>18</v>
@@ -4153,13 +4223,13 @@
         <v>45</v>
       </c>
       <c r="M54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N54" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -4176,10 +4246,10 @@
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
@@ -4191,19 +4261,19 @@
         <v>62</v>
       </c>
       <c r="K55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -4220,10 +4290,10 @@
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H56" t="s">
         <v>18</v>
@@ -4235,19 +4305,19 @@
         <v>62</v>
       </c>
       <c r="K56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L56" t="s">
+        <v>163</v>
+      </c>
+      <c r="M56" t="s">
         <v>164</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>165</v>
       </c>
-      <c r="N56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -4294,7 +4364,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -4311,10 +4381,10 @@
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H58" t="s">
         <v>18</v>
@@ -4326,19 +4396,19 @@
         <v>62</v>
       </c>
       <c r="K58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L58">
         <v>24000</v>
       </c>
       <c r="M58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N58" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -4355,10 +4425,10 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H59" t="s">
         <v>18</v>
@@ -4373,16 +4443,16 @@
         <v>112</v>
       </c>
       <c r="L59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -4402,7 +4472,7 @@
         <v>107</v>
       </c>
       <c r="G60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H60" t="s">
         <v>18</v>
@@ -4426,7 +4496,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4443,10 +4513,10 @@
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H61" t="s">
         <v>18</v>
@@ -4464,13 +4534,13 @@
         <v>15</v>
       </c>
       <c r="M61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N61" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -4487,10 +4557,10 @@
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H62" t="s">
         <v>18</v>
@@ -4502,19 +4572,19 @@
         <v>62</v>
       </c>
       <c r="K62" t="s">
+        <v>178</v>
+      </c>
+      <c r="L62" t="s">
         <v>179</v>
       </c>
-      <c r="L62" t="s">
-        <v>180</v>
-      </c>
       <c r="M62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N62" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -4531,10 +4601,10 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H63" t="s">
         <v>18</v>
@@ -4546,19 +4616,19 @@
         <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L63" t="s">
+        <v>163</v>
+      </c>
+      <c r="M63" t="s">
         <v>164</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>165</v>
       </c>
-      <c r="N63" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -4602,37 +4672,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K65" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K66" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K68" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K71" t="s">
         <v>19</v>
       </c>
@@ -4656,14 +4726,14 @@
       <selection activeCell="B2" sqref="B2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4677,13 +4747,13 @@
         <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -4700,10 +4770,10 @@
         <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -4717,10 +4787,10 @@
         <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -4734,7 +4804,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -4745,13 +4815,13 @@
         <v>24.8</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -4762,13 +4832,13 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
         <v>136</v>
       </c>
-      <c r="F6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -4782,13 +4852,13 @@
         <v>57</v>
       </c>
       <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
         <v>143</v>
       </c>
-      <c r="F7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4805,7 +4875,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -4816,7 +4886,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -4830,9 +4900,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -4841,63 +4911,63 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
       <c r="F14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>207</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>208</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>209</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>210</v>
-      </c>
-      <c r="F18" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4910,25 +4980,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B968F34-D1F1-468D-861C-B3678BFED83F}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.54296875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -4936,7 +5006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -4944,7 +5014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -4952,7 +5022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4960,7 +5030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -4968,7 +5038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -4976,7 +5046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -4984,7 +5054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -4992,7 +5062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -5000,7 +5070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -5008,7 +5078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -5016,7 +5086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -5024,7 +5094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -5040,7 +5110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -5048,7 +5118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -5056,12 +5126,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -5069,206 +5139,275 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="str">
-        <f>'data add''l'!A1</f>
-        <v>species</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
       </c>
       <c r="B22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>428</v>
+      </c>
+      <c r="B31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B32" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>370</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>359</v>
+      </c>
+      <c r="B39" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>439</v>
+      </c>
+      <c r="B40" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>373</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>360</v>
-      </c>
-      <c r="B25" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>351</v>
-      </c>
-      <c r="B28" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>357</v>
-      </c>
-      <c r="B30" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>361</v>
-      </c>
-      <c r="B31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>409</v>
+      </c>
+      <c r="B49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>397</v>
+      </c>
+      <c r="B51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>398</v>
+      </c>
+      <c r="B52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>399</v>
+      </c>
+      <c r="B53" t="s">
         <v>414</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>400</v>
+      </c>
+      <c r="B54" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>401</v>
+      </c>
+      <c r="B55" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>402</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B56" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>403</v>
       </c>
-      <c r="B39" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>404</v>
       </c>
-      <c r="B40" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>405</v>
       </c>
-      <c r="B41" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>406</v>
       </c>
-      <c r="B42" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>407</v>
       </c>
-      <c r="B43" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>408</v>
       </c>
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>409</v>
-      </c>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>410</v>
-      </c>
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>411</v>
-      </c>
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>412</v>
-      </c>
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>413</v>
-      </c>
-      <c r="B49"/>
+      <c r="B62"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5280,16 +5419,16 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -5309,7 +5448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -5329,7 +5468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -5349,7 +5488,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -5369,7 +5508,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -5389,7 +5528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -5409,7 +5548,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -5429,27 +5568,27 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
       <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
         <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>131</v>
       </c>
       <c r="D8">
         <v>2005</v>
       </c>
       <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
         <v>132</v>
       </c>
-      <c r="F8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -5457,39 +5596,39 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10">
         <v>2002</v>
       </c>
       <c r="E10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" t="s">
         <v>140</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>141</v>
       </c>
-      <c r="G10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -5497,131 +5636,131 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11">
         <v>1978</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
         <v>147</v>
-      </c>
-      <c r="B12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
       </c>
       <c r="D12">
         <v>2004</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13">
         <v>1966</v>
       </c>
       <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" t="s">
         <v>151</v>
       </c>
-      <c r="F13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" t="s">
         <v>212</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>213</v>
-      </c>
-      <c r="C14" t="s">
-        <v>214</v>
       </c>
       <c r="D14">
         <v>2018</v>
       </c>
       <c r="E14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" t="s">
         <v>215</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>216</v>
       </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>218</v>
-      </c>
-      <c r="C15" t="s">
-        <v>219</v>
       </c>
       <c r="D15">
         <v>2007</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
       <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
         <v>123</v>
-      </c>
-      <c r="C24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5635,1024 +5774,1293 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11130ADC-14A2-4DAD-919F-97FAE6F477E5}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="C1" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="E1" t="s">
         <v>222</v>
       </c>
       <c r="F1" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>162</v>
+        <v>355</v>
       </c>
       <c r="H1" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="I1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" t="s">
+        <v>426</v>
+      </c>
+      <c r="N1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R1" t="s">
+        <v>359</v>
+      </c>
+      <c r="S1" t="s">
+        <v>439</v>
+      </c>
+      <c r="T1" t="s">
         <v>373</v>
       </c>
-      <c r="J1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" t="s">
-        <v>360</v>
-      </c>
-      <c r="M1" t="s">
-        <v>374</v>
-      </c>
-      <c r="N1" t="s">
-        <v>375</v>
-      </c>
-      <c r="O1" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>374</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3.1688540000000001E-2</v>
       </c>
       <c r="E2">
-        <v>3.1688540000000001E-2</v>
-      </c>
-      <c r="F2">
         <v>0.431289641</v>
       </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>349</v>
       </c>
       <c r="I2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J2" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="J2">
+        <v>3.5</v>
       </c>
       <c r="K2">
+        <v>0.3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>433</v>
+      </c>
+      <c r="M2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2">
         <v>225600</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>43.4</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>60</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
         <v>107</v>
       </c>
-      <c r="Q2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>375</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4.8579160000000003E-3</v>
       </c>
       <c r="E3">
-        <v>4.8579160000000003E-3</v>
-      </c>
-      <c r="F3">
         <v>5.9969100999999997E-2</v>
       </c>
+      <c r="F3" t="s">
+        <v>163</v>
+      </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>349</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
-      </c>
-      <c r="J3" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="J3">
+        <v>3.2</v>
       </c>
       <c r="K3">
+        <v>0.2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>433</v>
+      </c>
+      <c r="M3" t="s">
+        <v>436</v>
+      </c>
+      <c r="N3">
         <v>41000</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>19</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>21.4</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>46</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
         <v>107</v>
       </c>
-      <c r="Q3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5.7064590999999998E-2</v>
       </c>
       <c r="E4">
-        <v>5.7064590999999998E-2</v>
-      </c>
-      <c r="F4">
         <v>0.229793462</v>
       </c>
+      <c r="F4" t="s">
+        <v>162</v>
+      </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="H4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J4" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="J4">
+        <v>2.8</v>
       </c>
       <c r="K4">
+        <v>0.1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>435</v>
+      </c>
+      <c r="M4" t="s">
+        <v>436</v>
+      </c>
+      <c r="N4">
         <v>21000</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>4</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>5.2</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>22</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>30.9</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4">
+        <v>23</v>
+      </c>
+      <c r="T4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>377</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.47260236500000002</v>
       </c>
       <c r="E5">
-        <v>0.47260236500000002</v>
-      </c>
-      <c r="F5">
         <v>0.265490324</v>
       </c>
+      <c r="F5" t="s">
+        <v>163</v>
+      </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>354</v>
       </c>
       <c r="I5" t="s">
-        <v>356</v>
-      </c>
-      <c r="J5" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="J5">
+        <v>3.1</v>
       </c>
       <c r="K5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L5" t="s">
+        <v>435</v>
+      </c>
+      <c r="M5" t="s">
+        <v>430</v>
+      </c>
+      <c r="N5">
         <v>206170</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>7</v>
       </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
         <v>24.8</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>27</v>
       </c>
-      <c r="P5" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S5">
+        <v>24</v>
+      </c>
+      <c r="T5" t="s">
+        <v>149</v>
+      </c>
+      <c r="U5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>378</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>8.3657030000000004E-3</v>
       </c>
       <c r="E6">
-        <v>8.3657030000000004E-3</v>
-      </c>
-      <c r="F6">
         <v>0.14750365900000001</v>
       </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="H6" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="I6" t="s">
-        <v>351</v>
-      </c>
-      <c r="J6" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="J6">
+        <v>3.2</v>
       </c>
       <c r="K6">
+        <v>0.1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>435</v>
+      </c>
+      <c r="M6" t="s">
+        <v>434</v>
+      </c>
+      <c r="N6">
         <v>12000</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>6.1</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>12</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>28.4</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6" t="s">
+        <v>135</v>
+      </c>
+      <c r="U6" t="s">
         <v>136</v>
       </c>
-      <c r="Q6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4.6645249E-2</v>
       </c>
       <c r="E7">
-        <v>4.6645249E-2</v>
-      </c>
-      <c r="F7">
         <v>0.33460725299999999</v>
       </c>
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
       <c r="H7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I7" t="s">
-        <v>356</v>
-      </c>
-      <c r="J7" t="s">
-        <v>396</v>
+        <v>391</v>
+      </c>
+      <c r="J7">
+        <v>4.7</v>
       </c>
       <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M7" t="s">
+        <v>182</v>
+      </c>
+      <c r="N7">
         <v>5000000</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>30</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>17.399999999999999</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>125</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>32</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7">
+        <v>61</v>
+      </c>
+      <c r="T7" t="s">
+        <v>142</v>
+      </c>
+      <c r="U7" t="s">
         <v>143</v>
       </c>
-      <c r="Q7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
+        <v>379</v>
+      </c>
+      <c r="D8" s="6">
         <v>6.8400000000000004E-4</v>
       </c>
-      <c r="F8">
+      <c r="E8">
         <v>4.4234835E-2</v>
       </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>349</v>
       </c>
       <c r="I8" t="s">
-        <v>351</v>
-      </c>
-      <c r="J8" t="s">
-        <v>396</v>
+        <v>391</v>
+      </c>
+      <c r="J8">
+        <v>4.4000000000000004</v>
       </c>
       <c r="K8">
+        <v>0.7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>437</v>
+      </c>
+      <c r="M8" t="s">
+        <v>434</v>
+      </c>
+      <c r="N8">
         <v>17000</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>9</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>82.2</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>100</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>28.9</v>
       </c>
-      <c r="P8" t="s">
+      <c r="S8">
+        <v>90</v>
+      </c>
+      <c r="T8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
+        <v>146</v>
+      </c>
+      <c r="D9" s="6">
         <v>5.62E-4</v>
       </c>
-      <c r="F9">
+      <c r="E9">
         <v>2.8459912E-2</v>
       </c>
+      <c r="F9" t="s">
+        <v>163</v>
+      </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="H9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I9" t="s">
-        <v>356</v>
-      </c>
-      <c r="J9" t="s">
-        <v>396</v>
+        <v>391</v>
+      </c>
+      <c r="J9">
+        <v>2.9</v>
       </c>
       <c r="K9">
+        <v>0.3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>433</v>
+      </c>
+      <c r="M9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N9">
         <v>100000</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>9</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>17</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>45</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>31</v>
       </c>
-      <c r="P9" t="s">
+      <c r="S9">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>380</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>9.1513252000000003E-2</v>
       </c>
       <c r="E10">
-        <v>9.1513252000000003E-2</v>
-      </c>
-      <c r="F10">
         <v>0.28390795299999999</v>
       </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="I10" t="s">
-        <v>356</v>
-      </c>
-      <c r="J10" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="J10">
+        <v>3.2</v>
       </c>
       <c r="K10">
+        <v>0.35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>433</v>
+      </c>
+      <c r="M10" t="s">
+        <v>436</v>
+      </c>
+      <c r="N10">
         <v>24000</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>9</v>
       </c>
-      <c r="N10">
-        <v>15</v>
-      </c>
-      <c r="O10">
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="R10">
         <v>24.8</v>
       </c>
-      <c r="P10" t="s">
+      <c r="S10">
+        <v>28</v>
+      </c>
+      <c r="T10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>381</v>
+      </c>
+      <c r="D11">
+        <v>1.0062280000000001E-3</v>
       </c>
       <c r="E11">
-        <v>1.0062280000000001E-3</v>
-      </c>
-      <c r="F11">
         <v>4.3828264999999998E-2</v>
       </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
       <c r="G11" t="s">
+        <v>357</v>
+      </c>
+      <c r="H11" t="s">
+        <v>349</v>
+      </c>
+      <c r="I11" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11">
+        <v>3.4</v>
+      </c>
+      <c r="K11">
+        <v>0.3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>441</v>
+      </c>
+      <c r="M11" t="s">
+        <v>438</v>
+      </c>
+      <c r="N11">
+        <v>32000</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>17</v>
+      </c>
+      <c r="Q11">
+        <v>30</v>
+      </c>
+      <c r="R11">
+        <v>32</v>
+      </c>
+      <c r="S11">
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.11111111111111E+16</v>
+      </c>
+      <c r="E12">
+        <v>1.1111111111111101E+22</v>
+      </c>
+      <c r="F12" t="s">
         <v>163</v>
       </c>
-      <c r="H11" t="s">
-        <v>359</v>
-      </c>
-      <c r="I11" t="s">
-        <v>351</v>
-      </c>
-      <c r="J11" t="s">
-        <v>352</v>
-      </c>
-      <c r="K11">
-        <v>32000</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>17</v>
-      </c>
-      <c r="N11">
-        <v>30</v>
-      </c>
-      <c r="O11">
-        <v>32</v>
-      </c>
-      <c r="P11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" t="s">
-        <v>387</v>
-      </c>
-      <c r="C12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1.11111111111111E+16</v>
-      </c>
-      <c r="F12">
-        <v>1.1111111111111101E+22</v>
-      </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="H12" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="I12" t="s">
-        <v>351</v>
-      </c>
-      <c r="J12" t="s">
-        <v>352</v>
-      </c>
-      <c r="K12" s="9">
+        <v>350</v>
+      </c>
+      <c r="J12">
+        <v>3.3</v>
+      </c>
+      <c r="K12">
+        <v>0.1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>441</v>
+      </c>
+      <c r="M12" t="s">
+        <v>434</v>
+      </c>
+      <c r="N12" s="9">
         <f>5648*253/3</f>
         <v>476314.66666666669</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>104</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>115</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>610</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>30.7</v>
       </c>
-      <c r="P12" t="s">
+      <c r="S12">
+        <v>87</v>
+      </c>
+      <c r="T12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
+        <v>384</v>
+      </c>
+      <c r="D13">
+        <v>2.876029E-3</v>
+      </c>
+      <c r="E13">
+        <v>2.902911E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" t="s">
+        <v>356</v>
+      </c>
+      <c r="H13" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="I13" t="s">
+        <v>350</v>
+      </c>
+      <c r="J13">
+        <v>3.2</v>
+      </c>
+      <c r="K13">
+        <v>0.45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>442</v>
+      </c>
+      <c r="M13" t="s">
+        <v>438</v>
+      </c>
+      <c r="N13">
+        <v>3000</v>
+      </c>
+      <c r="O13">
+        <v>14</v>
+      </c>
+      <c r="P13">
+        <v>20.5</v>
+      </c>
+      <c r="Q13">
+        <v>95</v>
+      </c>
+      <c r="R13">
+        <v>31</v>
+      </c>
+      <c r="S13">
+        <v>43</v>
+      </c>
+      <c r="T13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14">
+        <v>1.282622E-3</v>
+      </c>
+      <c r="E14">
+        <v>3.0574077000000002E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" t="s">
+        <v>357</v>
+      </c>
+      <c r="H14" t="s">
+        <v>354</v>
+      </c>
+      <c r="I14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14">
+        <v>2.8</v>
+      </c>
+      <c r="K14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L14" t="s">
+        <v>435</v>
+      </c>
+      <c r="M14" t="s">
+        <v>436</v>
+      </c>
+      <c r="N14">
+        <v>1000</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="Q14">
+        <v>37</v>
+      </c>
+      <c r="R14">
+        <v>29</v>
+      </c>
+      <c r="S14">
+        <v>27</v>
+      </c>
+      <c r="T14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="6">
+        <v>7.9699999999999997E-4</v>
+      </c>
+      <c r="E15">
+        <v>1.5246381999999999E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" t="s">
+        <v>354</v>
+      </c>
+      <c r="I15" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K15">
+        <v>0.21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>435</v>
+      </c>
+      <c r="M15" t="s">
+        <v>436</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="O15">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>18.5</v>
+      </c>
+      <c r="Q15">
+        <v>49.4</v>
+      </c>
+      <c r="R15" s="7">
+        <v>27</v>
+      </c>
+      <c r="S15">
+        <v>35</v>
+      </c>
+      <c r="T15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16">
+        <v>1.132749E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.5490324E-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" t="s">
+        <v>391</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>0.31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>444</v>
+      </c>
+      <c r="M16" t="s">
+        <v>443</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>9</v>
+      </c>
+      <c r="P16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q16">
+        <v>23.5</v>
+      </c>
+      <c r="R16">
+        <v>26</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" t="s">
+        <v>386</v>
+      </c>
+      <c r="D17" s="6">
+        <v>6.4400000000000004E-4</v>
+      </c>
+      <c r="E17">
+        <v>1.5043096000000001E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" t="s">
+        <v>354</v>
+      </c>
+      <c r="I17" t="s">
+        <v>391</v>
+      </c>
+      <c r="J17">
+        <v>3.4</v>
+      </c>
+      <c r="K17">
+        <v>0.49</v>
+      </c>
+      <c r="L17" t="s">
+        <v>441</v>
+      </c>
+      <c r="M17" t="s">
+        <v>182</v>
+      </c>
+      <c r="N17">
+        <v>16800</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+      <c r="Q17">
+        <v>31</v>
+      </c>
+      <c r="R17">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="S17">
+        <v>31</v>
+      </c>
+      <c r="T17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3.57E-4</v>
+      </c>
+      <c r="E18">
+        <v>6.4644660000000003E-3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>356</v>
+      </c>
+      <c r="H18" t="s">
+        <v>349</v>
+      </c>
+      <c r="I18" t="s">
+        <v>350</v>
+      </c>
+      <c r="J18">
+        <v>4.2</v>
+      </c>
+      <c r="K18">
+        <v>0.3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>442</v>
+      </c>
+      <c r="M18" t="s">
+        <v>438</v>
+      </c>
+      <c r="N18">
+        <v>70000</v>
+      </c>
+      <c r="O18">
+        <v>24</v>
+      </c>
+      <c r="P18">
+        <v>56</v>
+      </c>
+      <c r="Q18">
+        <v>132</v>
+      </c>
+      <c r="R18">
+        <v>32</v>
+      </c>
+      <c r="S18">
+        <v>73</v>
+      </c>
+      <c r="T18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5.4100000000000003E-4</v>
+      </c>
+      <c r="E19">
+        <v>2.236136E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>357</v>
+      </c>
+      <c r="H19" t="s">
+        <v>354</v>
+      </c>
+      <c r="I19" t="s">
+        <v>350</v>
+      </c>
+      <c r="J19">
+        <v>3.6</v>
+      </c>
+      <c r="K19">
+        <v>0.1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>442</v>
+      </c>
+      <c r="M19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N19">
+        <v>11000000</v>
+      </c>
+      <c r="O19">
+        <v>8</v>
+      </c>
+      <c r="P19">
+        <v>40</v>
+      </c>
+      <c r="Q19">
+        <v>91</v>
+      </c>
+      <c r="R19">
+        <v>28</v>
+      </c>
+      <c r="S19">
+        <v>51</v>
+      </c>
+      <c r="T19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>206</v>
       </c>
-      <c r="B13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13">
-        <v>2.876029E-3</v>
-      </c>
-      <c r="F13">
-        <v>2.902911E-2</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D20">
+        <v>2.667141E-3</v>
+      </c>
+      <c r="E20">
+        <v>2.6101804999999999E-2</v>
+      </c>
+      <c r="F20" t="s">
         <v>163</v>
       </c>
-      <c r="H13" t="s">
-        <v>358</v>
-      </c>
-      <c r="I13" t="s">
-        <v>356</v>
-      </c>
-      <c r="J13" t="s">
-        <v>352</v>
-      </c>
-      <c r="K13">
-        <v>3000</v>
-      </c>
-      <c r="L13">
-        <v>14</v>
-      </c>
-      <c r="M13">
-        <v>20.5</v>
-      </c>
-      <c r="N13">
-        <v>95</v>
-      </c>
-      <c r="O13">
-        <v>31</v>
-      </c>
-      <c r="P13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14">
-        <v>1.282622E-3</v>
-      </c>
-      <c r="F14">
-        <v>3.0574077000000002E-2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" t="s">
-        <v>359</v>
-      </c>
-      <c r="I14" t="s">
-        <v>356</v>
-      </c>
-      <c r="J14" t="s">
-        <v>183</v>
-      </c>
-      <c r="K14">
-        <v>1000</v>
-      </c>
-      <c r="L14">
-        <v>9</v>
-      </c>
-      <c r="M14" s="7">
-        <v>13.9</v>
-      </c>
-      <c r="N14">
-        <v>37</v>
-      </c>
-      <c r="O14">
-        <v>29</v>
-      </c>
-      <c r="P14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" s="6">
-        <v>7.9699999999999997E-4</v>
-      </c>
-      <c r="F15">
-        <v>1.5246381999999999E-2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15" t="s">
-        <v>356</v>
-      </c>
-      <c r="J15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1000</v>
-      </c>
-      <c r="L15">
-        <v>11</v>
-      </c>
-      <c r="M15">
-        <v>18.5</v>
-      </c>
-      <c r="N15">
-        <v>49.4</v>
-      </c>
-      <c r="O15" s="7">
-        <v>27</v>
-      </c>
-      <c r="P15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" t="s">
-        <v>389</v>
-      </c>
-      <c r="C16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16">
-        <v>1.132749E-3</v>
-      </c>
-      <c r="F16">
-        <v>1.5490324E-2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" t="s">
-        <v>188</v>
-      </c>
-      <c r="I16" t="s">
-        <v>351</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="G20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" t="s">
+        <v>354</v>
+      </c>
+      <c r="I20" t="s">
+        <v>350</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>0.67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>442</v>
+      </c>
+      <c r="M20" t="s">
+        <v>438</v>
+      </c>
+      <c r="N20">
+        <v>789</v>
+      </c>
+      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20">
+        <v>16</v>
+      </c>
+      <c r="Q20">
+        <v>38</v>
+      </c>
+      <c r="R20">
+        <v>16.8</v>
+      </c>
+      <c r="S20">
+        <v>28</v>
+      </c>
+      <c r="T20" t="s">
         <v>396</v>
       </c>
-      <c r="K16">
-        <v>20</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N16">
-        <v>23.5</v>
-      </c>
-      <c r="O16">
-        <v>26</v>
-      </c>
-      <c r="P16" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" t="s">
-        <v>390</v>
-      </c>
-      <c r="C17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="6">
-        <v>6.4400000000000004E-4</v>
-      </c>
-      <c r="F17">
-        <v>1.5043096000000001E-2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" t="s">
-        <v>188</v>
-      </c>
-      <c r="I17" t="s">
-        <v>356</v>
-      </c>
-      <c r="J17" t="s">
-        <v>396</v>
-      </c>
-      <c r="K17">
-        <v>16800</v>
-      </c>
-      <c r="L17">
-        <v>15</v>
-      </c>
-      <c r="M17">
-        <v>14</v>
-      </c>
-      <c r="N17">
-        <v>31</v>
-      </c>
-      <c r="O17">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="P17" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" t="s">
-        <v>391</v>
-      </c>
-      <c r="C18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="6">
-        <v>3.57E-4</v>
-      </c>
-      <c r="F18">
-        <v>6.4644660000000003E-3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" t="s">
-        <v>358</v>
-      </c>
-      <c r="I18" t="s">
-        <v>351</v>
-      </c>
-      <c r="J18" t="s">
-        <v>352</v>
-      </c>
-      <c r="K18">
-        <v>70000</v>
-      </c>
-      <c r="L18">
-        <v>24</v>
-      </c>
-      <c r="M18">
-        <v>56</v>
-      </c>
-      <c r="N18">
-        <v>132</v>
-      </c>
-      <c r="O18">
-        <v>32</v>
-      </c>
-      <c r="P18" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C19" t="s">
-        <v>201</v>
-      </c>
-      <c r="E19" s="6">
-        <v>5.4100000000000003E-4</v>
-      </c>
-      <c r="F19">
-        <v>2.236136E-2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" t="s">
-        <v>359</v>
-      </c>
-      <c r="I19" t="s">
-        <v>356</v>
-      </c>
-      <c r="J19" t="s">
-        <v>352</v>
-      </c>
-      <c r="K19">
-        <v>11000000</v>
-      </c>
-      <c r="L19">
-        <v>8</v>
-      </c>
-      <c r="M19">
-        <v>40</v>
-      </c>
-      <c r="N19">
-        <v>91</v>
-      </c>
-      <c r="O19">
-        <v>28</v>
-      </c>
-      <c r="P19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B20" t="s">
-        <v>393</v>
-      </c>
-      <c r="C20" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20">
-        <v>2.667141E-3</v>
-      </c>
-      <c r="F20">
-        <v>2.6101804999999999E-2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" t="s">
-        <v>188</v>
-      </c>
-      <c r="I20" t="s">
-        <v>356</v>
-      </c>
-      <c r="J20" t="s">
-        <v>352</v>
-      </c>
-      <c r="K20">
-        <v>789</v>
-      </c>
-      <c r="L20">
-        <v>7</v>
-      </c>
-      <c r="M20">
-        <v>16</v>
-      </c>
-      <c r="N20">
-        <v>38</v>
-      </c>
-      <c r="O20">
-        <v>16.8</v>
-      </c>
-      <c r="P20" t="s">
-        <v>401</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q20">
-    <sortCondition descending="1" ref="D2:D20"/>
-    <sortCondition ref="C2:C20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U20">
+    <sortCondition ref="B2:B20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6662,604 +7070,616 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF13C34-08F2-49F0-88C5-AFB6146CDF08}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="H31" sqref="H31:H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>258</v>
       </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>259</v>
       </c>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>261</v>
       </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>275</v>
       </c>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>281</v>
       </c>
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>282</v>
       </c>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>284</v>
       </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>285</v>
       </c>
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>300</v>
       </c>
-      <c r="B64" s="7"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>313</v>
       </c>
-      <c r="B77" s="7"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="B81" s="7"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>317</v>
       </c>
-      <c r="B81" s="7"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="B82" s="7"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>318</v>
       </c>
-      <c r="B82" s="7"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="B92" s="8"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>327</v>
       </c>
-      <c r="B92" s="8"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>328</v>
       </c>
-      <c r="B93" s="8"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>329</v>
       </c>
-      <c r="B94" s="8"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>330</v>
       </c>
-      <c r="B95" s="8"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>336</v>
       </c>
-      <c r="B101" s="7"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>349</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B0D514-9057-4032-9666-DC93CF3383C6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7274,17 +7694,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f60d4be9-3557-4154-8f7f-0f7fc20459a7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e232c206-309b-474b-8da4-c8d575bef4c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010083273B062B35CA42A1E0A0B73A10A11A" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="701d8ad82fac035fae8804b0a6881e55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e232c206-309b-474b-8da4-c8d575bef4c3" xmlns:ns3="4fa31878-c15f-4cc2-b832-57ca6f3405c8" xmlns:ns4="f60d4be9-3557-4154-8f7f-0f7fc20459a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11990063e850fe3384480a77fc500bb0" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e232c206-309b-474b-8da4-c8d575bef4c3"/>
@@ -7500,6 +7909,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f60d4be9-3557-4154-8f7f-0f7fc20459a7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e232c206-309b-474b-8da4-c8d575bef4c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A49AB8B-2476-4025-BD19-0D049D4B8192}">
   <ds:schemaRefs>
@@ -7509,24 +7929,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CBF86D7-C64D-4782-A218-1C314E358303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e232c206-309b-474b-8da4-c8d575bef4c3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4fa31878-c15f-4cc2-b832-57ca6f3405c8"/>
-    <ds:schemaRef ds:uri="f60d4be9-3557-4154-8f7f-0f7fc20459a7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27186B7E-23F8-47D9-B8E0-C9F0EFB09031}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7544,4 +7946,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CBF86D7-C64D-4782-A218-1C314E358303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e232c206-309b-474b-8da4-c8d575bef4c3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4fa31878-c15f-4cc2-b832-57ca6f3405c8"/>
+    <ds:schemaRef ds:uri="f60d4be9-3557-4154-8f7f-0f7fc20459a7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>